--- a/fornitori_excel.xlsx
+++ b/fornitori_excel.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitol\Desktop\ep-v1-gestionale\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B156A2BA-9F61-4A0A-8890-50C50D7229AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="Template" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>companyName</t>
   </si>
@@ -46,7 +42,13 @@
     <t>phone</t>
   </si>
   <si>
-    <t>VIA NICOLA DE GEMMIS 12</t>
+    <t xml:space="preserve">PANZA STEFANO</t>
+  </si>
+  <si>
+    <t>IT08088930725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIA NICOLA DE GEMMIS 12</t>
   </si>
   <si>
     <t>BARI</t>
@@ -58,49 +60,46 @@
     <t>matildasullalbero@gmail.com</t>
   </si>
   <si>
-    <t>080 320 2036</t>
-  </si>
-  <si>
-    <t>PANZA STEFANO</t>
+    <t xml:space="preserve">080 320 2036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDUCRESCO SRL</t>
   </si>
   <si>
     <t>IT08919360720</t>
   </si>
   <si>
-    <t>IT08088930725</t>
-  </si>
-  <si>
-    <t>VIA AMENDOLA 52</t>
+    <t xml:space="preserve">VIA AMENDOLA 52</t>
   </si>
   <si>
     <t>info@educresco.it</t>
   </si>
   <si>
-    <t>080 693 2458</t>
-  </si>
-  <si>
-    <t>EDUCRESCO SRL</t>
-  </si>
-  <si>
-    <t>VIA FRANCESCO PETRELLI 6</t>
+    <t xml:space="preserve">080 693 2458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAMME CONTATTO APS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF 093506300727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIA FRANCESCO PETRELLI 6</t>
   </si>
   <si>
     <t>mammecontattobari@gmail.com</t>
   </si>
   <si>
-    <t>320 750 4284</t>
-  </si>
-  <si>
-    <t>MAMME CONTATTO APS</t>
+    <t xml:space="preserve">320 750 4284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOLELUNA COOP.SOC.</t>
   </si>
   <si>
     <t>IT06202460728</t>
   </si>
   <si>
-    <t>CF 093506300727</t>
-  </si>
-  <si>
-    <t>VIA TOMMASO FIORE 16</t>
+    <t xml:space="preserve">VIA TOMMASO FIORE 16</t>
   </si>
   <si>
     <t>BITRITTO</t>
@@ -109,38 +108,51 @@
     <t>info@cooperativasoleluna.it</t>
   </si>
   <si>
-    <t>080 849 4015</t>
-  </si>
-  <si>
-    <t>SOLELUNA COOP.SOC.</t>
+    <t xml:space="preserve">080 849 4015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIA DI FESTA DI RICCI VALENTINA GIULIANA</t>
   </si>
   <si>
     <t>IT07201330722</t>
   </si>
   <si>
-    <t>VIA ANTONIO DE VITI DE MARCO 14-16</t>
+    <t xml:space="preserve">VIA ANTONIO DE VITI DE MARCO 14-16</t>
   </si>
   <si>
     <t>ariadifestabari@libero.it</t>
   </si>
   <si>
-    <t>388 971 9289</t>
-  </si>
-  <si>
-    <t>ARIA DI FESTA DI RICCI VALENTINA GIULIANA</t>
+    <t xml:space="preserve">388 971 9289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UN MATTONCINO ALLA VOLTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIA BETTINO RICASOLI 9</t>
+  </si>
+  <si>
+    <t>CONVERSANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">338 819 8586</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
-      <sz val="12"/>
+      <sz val="12.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.500000"/>
+      <color rgb="FF080809"/>
+      <name val="Segoe UI Historic"/>
     </font>
   </fonts>
   <fills count="2">
@@ -153,25 +165,28 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+  <cellXfs count="3">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" quotePrefix="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -183,7 +198,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -229,13 +244,13 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -258,19 +273,18 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -293,7 +307,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -328,16 +341,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -459,9 +476,226 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
   <a:objectDefaults>
     <a:spDef>
-      <a:spPr/>
+      <a:spPr bwMode="auto"/>
       <a:bodyPr/>
       <a:lstStyle/>
       <a:style>
@@ -480,7 +714,7 @@
       </a:style>
     </a:spDef>
     <a:lnDef>
-      <a:spPr/>
+      <a:spPr bwMode="auto"/>
       <a:bodyPr/>
       <a:lstStyle/>
       <a:style>
@@ -499,31 +733,29 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" width="37.375"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" width="15.5"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" width="23.375"/>
+    <col bestFit="1" customWidth="1" min="4" max="4" width="7.25"/>
+    <col bestFit="1" customWidth="1" min="5" max="5" width="4.75"/>
+    <col bestFit="1" customWidth="1" min="6" max="6" width="7.75"/>
+    <col bestFit="1" customWidth="1" min="7" max="7" width="25.625"/>
+    <col bestFit="1" customWidth="1" min="8" max="8" width="11.875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -549,140 +781,160 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>70124</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>70126</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>70123</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>70020</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>70125</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7">
+        <v>70014</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:H1" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>